--- a/testData/TestData_UserModule.xlsx
+++ b/testData/TestData_UserModule.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schinna\RestAssuredAutomationFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE4729-27A6-4D71-8CF3-E0797CA54BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EABA0-55CD-4827-BAA9-DF8780D09E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="create user" sheetId="1" r:id="rId1"/>
+    <sheet name="add pet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -172,6 +173,63 @@
   </si>
   <si>
     <t>Ganguli@Testing.com</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Category ID</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Photo Urls</t>
+  </si>
+  <si>
+    <t>Tag ID</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bull Dogs</t>
+  </si>
+  <si>
+    <t>French Bull Dog</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>French Bull Dog from Germany</t>
+  </si>
+  <si>
+    <t>British Bull Dog</t>
+  </si>
+  <si>
+    <t>British Bull Dog from Britian</t>
+  </si>
+  <si>
+    <t>http://www.photo1.1.com, http://www.photo1.2.com</t>
+  </si>
+  <si>
+    <t>http://www.photo2.1.com</t>
+  </si>
+  <si>
+    <t>Old English Bull Dog</t>
+  </si>
+  <si>
+    <t>http://www.photo3.1.com, http://www.photo3.2.com</t>
+  </si>
+  <si>
+    <t>Old English Bull Dog from UK</t>
   </si>
 </sst>
 </file>
@@ -236,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +305,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -838,4 +901,705 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CF62F-F205-4378-A066-0CA6429656B0}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>1011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="6">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="6">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="6">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="6">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>1013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="6">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>1013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="6">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1013</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="6">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="6">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>1013</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14">
+        <v>1013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15">
+        <v>1013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="6">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="6">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17">
+        <v>1013</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18">
+        <v>1013</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="6">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19">
+        <v>1013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="6">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>1013</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="6">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>1013</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="6">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>1013</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="6">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>1013</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="6">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>1013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="6">
+        <v>146</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>1013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="6">
+        <v>147</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.photo1.com" xr:uid="{9088A2CC-F1A4-420F-AC0A-726D57827FB6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F549F849-A480-4350-9A66-F7E20108C4CE}"/>
+    <hyperlink ref="E4" r:id="rId3" display="http://www.photo2.1.com" xr:uid="{8933BDB9-8FAF-4139-BD50-C525F17D7CAD}"/>
+    <hyperlink ref="E5" r:id="rId4" display="http://www.photo2.1.com" xr:uid="{7BBDB4D3-BC72-4732-BAF6-3FB3405CB9CE}"/>
+    <hyperlink ref="E6" r:id="rId5" display="http://www.photo2.1.com" xr:uid="{CB176114-DF64-43C6-A5CA-40979C983DFE}"/>
+    <hyperlink ref="E7" r:id="rId6" display="http://www.photo2.1.com" xr:uid="{376996F7-F570-4411-8A78-BE9A6105B8D6}"/>
+    <hyperlink ref="E8" r:id="rId7" display="http://www.photo2.1.com" xr:uid="{51136F39-B073-4682-BC25-12DADEBD999D}"/>
+    <hyperlink ref="E9" r:id="rId8" display="http://www.photo2.1.com" xr:uid="{A1849B9D-DAC8-465F-B75D-4500F32E6D1C}"/>
+    <hyperlink ref="E10" r:id="rId9" display="http://www.photo2.1.com" xr:uid="{81C015A4-DC40-45BC-9197-0849412A8574}"/>
+    <hyperlink ref="E11" r:id="rId10" display="http://www.photo2.1.com" xr:uid="{DA4031EE-1D66-4EE6-BCC8-7134FC859466}"/>
+    <hyperlink ref="E12" r:id="rId11" display="http://www.photo2.1.com" xr:uid="{07C9C432-9979-4EB8-8A11-E80CACAEA3E8}"/>
+    <hyperlink ref="E13" r:id="rId12" display="http://www.photo2.1.com" xr:uid="{F72CD25F-E856-4E92-BD4F-54374696C6D0}"/>
+    <hyperlink ref="E14" r:id="rId13" display="http://www.photo2.1.com" xr:uid="{8B2005C4-7C71-4815-AFEB-D5D2F96CE054}"/>
+    <hyperlink ref="E15" r:id="rId14" display="http://www.photo2.1.com" xr:uid="{94AFDBEF-31A2-46BC-978F-08B2E2FE3D17}"/>
+    <hyperlink ref="E16" r:id="rId15" display="http://www.photo2.1.com" xr:uid="{BD1BE430-028A-4246-979C-41FAEC6E451D}"/>
+    <hyperlink ref="E17" r:id="rId16" display="http://www.photo2.1.com" xr:uid="{039E9D5E-B589-4D17-97AB-88C1C498A35B}"/>
+    <hyperlink ref="E18" r:id="rId17" display="http://www.photo2.1.com" xr:uid="{765CCC79-6CAF-4EC6-AED9-EAA237553D80}"/>
+    <hyperlink ref="E19" r:id="rId18" display="http://www.photo2.1.com" xr:uid="{67966E51-0FE5-4D0B-9115-0CA0536B64AF}"/>
+    <hyperlink ref="E20" r:id="rId19" display="http://www.photo2.1.com" xr:uid="{495FD336-18EF-4B3B-8A16-9C33F26D8055}"/>
+    <hyperlink ref="E21" r:id="rId20" display="http://www.photo2.1.com" xr:uid="{7A3E5851-D931-4849-9061-00F530168354}"/>
+    <hyperlink ref="E22" r:id="rId21" display="http://www.photo2.1.com" xr:uid="{509041F3-7C87-4D9C-9A12-7882DF26D48B}"/>
+    <hyperlink ref="E23" r:id="rId22" display="http://www.photo2.1.com" xr:uid="{7AC0D8D3-72E5-446E-BA6D-2233EE25583D}"/>
+    <hyperlink ref="E24" r:id="rId23" display="http://www.photo2.1.com" xr:uid="{BD7E4FA3-8824-4CE7-BB6D-34D7688D91EA}"/>
+    <hyperlink ref="E25" r:id="rId24" display="http://www.photo2.1.com" xr:uid="{18ECEE9B-DFE6-4546-9810-8F6D7AB20CDD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/TestData_UserModule.xlsx
+++ b/testData/TestData_UserModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schinna\RestAssuredAutomationFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30EABA0-55CD-4827-BAA9-DF8780D09E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A1072-04F8-4B70-90D2-3C8BFFD17E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Id</t>
   </si>
@@ -230,12 +230,22 @@
   </si>
   <si>
     <t>Old English Bull Dog from UK</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,7 +319,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,29 +922,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CF62F-F205-4378-A066-0CA6429656B0}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="56.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -939,7 +956,7 @@
       <c r="E1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -950,10 +967,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>1011</v>
       </c>
       <c r="C2" t="s">
@@ -965,7 +982,7 @@
       <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>123</v>
       </c>
       <c r="G2" t="s">
@@ -976,10 +993,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="7">
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>1012</v>
       </c>
       <c r="C3" t="s">
@@ -991,21 +1008,21 @@
       <c r="E3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>124</v>
       </c>
       <c r="G3" t="s">
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="7">
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>1013</v>
       </c>
       <c r="C4" t="s">
@@ -1017,560 +1034,14 @@
       <c r="E4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5">
-        <v>1013</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="6">
-        <v>127</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6">
-        <v>1013</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="6">
-        <v>128</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7">
-        <v>1013</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="6">
-        <v>129</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>107</v>
-      </c>
-      <c r="B8">
-        <v>1013</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="6">
-        <v>130</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>108</v>
-      </c>
-      <c r="B9">
-        <v>1013</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="6">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>109</v>
-      </c>
-      <c r="B10">
-        <v>1013</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="6">
-        <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>110</v>
-      </c>
-      <c r="B11">
-        <v>1013</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="6">
-        <v>133</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>111</v>
-      </c>
-      <c r="B12">
-        <v>1013</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="6">
-        <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>112</v>
-      </c>
-      <c r="B13">
-        <v>1013</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6">
-        <v>135</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>113</v>
-      </c>
-      <c r="B14">
-        <v>1013</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="6">
-        <v>136</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>114</v>
-      </c>
-      <c r="B15">
-        <v>1013</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="6">
-        <v>137</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>115</v>
-      </c>
-      <c r="B16">
-        <v>1013</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="6">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>116</v>
-      </c>
-      <c r="B17">
-        <v>1013</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="6">
-        <v>139</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>117</v>
-      </c>
-      <c r="B18">
-        <v>1013</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="6">
-        <v>140</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>118</v>
-      </c>
-      <c r="B19">
-        <v>1013</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="6">
-        <v>141</v>
-      </c>
-      <c r="G19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>119</v>
-      </c>
-      <c r="B20">
-        <v>1013</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="6">
-        <v>142</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>120</v>
-      </c>
-      <c r="B21">
-        <v>1013</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="6">
-        <v>143</v>
-      </c>
-      <c r="G21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>121</v>
-      </c>
-      <c r="B22">
-        <v>1013</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="6">
-        <v>144</v>
-      </c>
-      <c r="G22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>122</v>
-      </c>
-      <c r="B23">
-        <v>1013</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="6">
-        <v>145</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>123</v>
-      </c>
-      <c r="B24">
-        <v>1013</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="6">
-        <v>146</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>124</v>
-      </c>
-      <c r="B25">
-        <v>1013</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="6">
-        <v>147</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1578,27 +1049,6 @@
     <hyperlink ref="E2" r:id="rId1" display="http://www.photo1.com" xr:uid="{9088A2CC-F1A4-420F-AC0A-726D57827FB6}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F549F849-A480-4350-9A66-F7E20108C4CE}"/>
     <hyperlink ref="E4" r:id="rId3" display="http://www.photo2.1.com" xr:uid="{8933BDB9-8FAF-4139-BD50-C525F17D7CAD}"/>
-    <hyperlink ref="E5" r:id="rId4" display="http://www.photo2.1.com" xr:uid="{7BBDB4D3-BC72-4732-BAF6-3FB3405CB9CE}"/>
-    <hyperlink ref="E6" r:id="rId5" display="http://www.photo2.1.com" xr:uid="{CB176114-DF64-43C6-A5CA-40979C983DFE}"/>
-    <hyperlink ref="E7" r:id="rId6" display="http://www.photo2.1.com" xr:uid="{376996F7-F570-4411-8A78-BE9A6105B8D6}"/>
-    <hyperlink ref="E8" r:id="rId7" display="http://www.photo2.1.com" xr:uid="{51136F39-B073-4682-BC25-12DADEBD999D}"/>
-    <hyperlink ref="E9" r:id="rId8" display="http://www.photo2.1.com" xr:uid="{A1849B9D-DAC8-465F-B75D-4500F32E6D1C}"/>
-    <hyperlink ref="E10" r:id="rId9" display="http://www.photo2.1.com" xr:uid="{81C015A4-DC40-45BC-9197-0849412A8574}"/>
-    <hyperlink ref="E11" r:id="rId10" display="http://www.photo2.1.com" xr:uid="{DA4031EE-1D66-4EE6-BCC8-7134FC859466}"/>
-    <hyperlink ref="E12" r:id="rId11" display="http://www.photo2.1.com" xr:uid="{07C9C432-9979-4EB8-8A11-E80CACAEA3E8}"/>
-    <hyperlink ref="E13" r:id="rId12" display="http://www.photo2.1.com" xr:uid="{F72CD25F-E856-4E92-BD4F-54374696C6D0}"/>
-    <hyperlink ref="E14" r:id="rId13" display="http://www.photo2.1.com" xr:uid="{8B2005C4-7C71-4815-AFEB-D5D2F96CE054}"/>
-    <hyperlink ref="E15" r:id="rId14" display="http://www.photo2.1.com" xr:uid="{94AFDBEF-31A2-46BC-978F-08B2E2FE3D17}"/>
-    <hyperlink ref="E16" r:id="rId15" display="http://www.photo2.1.com" xr:uid="{BD1BE430-028A-4246-979C-41FAEC6E451D}"/>
-    <hyperlink ref="E17" r:id="rId16" display="http://www.photo2.1.com" xr:uid="{039E9D5E-B589-4D17-97AB-88C1C498A35B}"/>
-    <hyperlink ref="E18" r:id="rId17" display="http://www.photo2.1.com" xr:uid="{765CCC79-6CAF-4EC6-AED9-EAA237553D80}"/>
-    <hyperlink ref="E19" r:id="rId18" display="http://www.photo2.1.com" xr:uid="{67966E51-0FE5-4D0B-9115-0CA0536B64AF}"/>
-    <hyperlink ref="E20" r:id="rId19" display="http://www.photo2.1.com" xr:uid="{495FD336-18EF-4B3B-8A16-9C33F26D8055}"/>
-    <hyperlink ref="E21" r:id="rId20" display="http://www.photo2.1.com" xr:uid="{7A3E5851-D931-4849-9061-00F530168354}"/>
-    <hyperlink ref="E22" r:id="rId21" display="http://www.photo2.1.com" xr:uid="{509041F3-7C87-4D9C-9A12-7882DF26D48B}"/>
-    <hyperlink ref="E23" r:id="rId22" display="http://www.photo2.1.com" xr:uid="{7AC0D8D3-72E5-446E-BA6D-2233EE25583D}"/>
-    <hyperlink ref="E24" r:id="rId23" display="http://www.photo2.1.com" xr:uid="{BD7E4FA3-8824-4CE7-BB6D-34D7688D91EA}"/>
-    <hyperlink ref="E25" r:id="rId24" display="http://www.photo2.1.com" xr:uid="{18ECEE9B-DFE6-4546-9810-8F6D7AB20CDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
